--- a/data/trans_dic/P55$nadie-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$nadie-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,12 +740,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,07</t>
+          <t>0,0; 33,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,55</t>
+          <t>0,0; 31,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -759,12 +760,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,05</t>
+          <t>0,0; 26,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,09</t>
+          <t>0,0; 20,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -779,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 22,93</t>
+          <t>2,52; 24,28</t>
         </is>
       </c>
     </row>
@@ -864,7 +865,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,65</t>
+          <t>0,0; 64,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,56</t>
+          <t>0,0; 29,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,17 +895,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,1</t>
+          <t>0,0; 68,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,29; 36,79</t>
+          <t>4,25; 34,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,75</t>
+          <t>0,0; 39,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,85</t>
+          <t>0,0; 30,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 22,56</t>
+          <t>4,62; 23,0</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,23</t>
+          <t>0,0; 32,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 43,31</t>
+          <t>4,1; 41,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,12 +1020,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,81</t>
+          <t>0,0; 13,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,41</t>
+          <t>0,0; 55,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,7 +1035,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,99; 55,41</t>
+          <t>6,0; 58,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,22 +1045,22 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 31,81</t>
+          <t>3,41; 29,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 27,19</t>
+          <t>2,36; 27,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 32,02</t>
+          <t>2,94; 32,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,09</t>
+          <t>0,0; 5,51</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 10,11</t>
+          <t>1,19; 10,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,76</t>
+          <t>0,0; 7,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,47 +1160,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,91</t>
+          <t>0,83; 7,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,66</t>
+          <t>0,0; 19,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,01</t>
+          <t>0,0; 23,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 26,29</t>
+          <t>2,92; 25,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,07</t>
+          <t>0,0; 10,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,87</t>
+          <t>1,0; 9,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,89</t>
+          <t>0,0; 8,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 10,94</t>
+          <t>1,38; 11,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,32</t>
+          <t>1,11; 6,66</t>
         </is>
       </c>
     </row>
@@ -1289,57 +1290,57 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,86</t>
+          <t>0,0; 11,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,38</t>
+          <t>0,0; 13,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 20,6</t>
+          <t>3,68; 20,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,27</t>
+          <t>0,0; 18,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,11</t>
+          <t>0,0; 8,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 19,94</t>
+          <t>2,5; 20,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 10,03</t>
+          <t>2,98; 9,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,32</t>
+          <t>0,0; 13,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,37</t>
+          <t>0,82; 7,27</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 13,98</t>
+          <t>2,5; 13,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 10,77</t>
+          <t>3,93; 10,65</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,87; 11,63</t>
+          <t>3,07; 12,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,84</t>
+          <t>0,66; 6,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,15; 12,1</t>
+          <t>2,88; 11,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,51</t>
+          <t>1,37; 5,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,22; 12,6</t>
+          <t>3,08; 11,8</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,84</t>
+          <t>0,66; 6,1</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,15; 12,1</t>
+          <t>2,88; 11,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,36</t>
+          <t>1,4; 5,3</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 11,31</t>
+          <t>2,18; 10,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,36; 10,78</t>
+          <t>1,4; 10,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>0,0; 5,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,86</t>
+          <t>2,96; 8,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,19</t>
+          <t>3,88; 10,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,56</t>
+          <t>0,79; 4,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,42; 12,63</t>
+          <t>5,34; 12,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,28</t>
+          <t>3,03; 6,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,95; 9,15</t>
+          <t>3,85; 9,5</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,36</t>
+          <t>1,5; 5,4</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 9,54</t>
+          <t>4,01; 9,21</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,33</t>
+          <t>3,44; 6,33</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que no le ayuda nadie cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1364</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2530</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1901</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1953</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1634</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3996</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4221</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1448</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2125</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3720</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4880</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2033</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>652; 6278</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1417</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2293</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3710</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7008</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1973</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1560</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5125</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1636</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1828</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4594</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>584; 4789</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6407</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2042</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5317</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1442; 7170</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1644</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4058</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3594</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4058</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5893</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1002; 10242</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1565</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2899</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4648</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1898</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>979; 9590</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 941</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>897; 7822</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1027; 11743</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>962; 10660</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2336</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2734</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3083</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3606</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3083</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>839; 7384</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5297</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1622</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>596; 5174</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4504</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4869</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>959; 8205</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3924</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>945; 8524</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7125</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1002; 8474</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1230; 7384</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1853</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3126</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2241</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2177</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5287</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2241</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3160</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6598</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8413</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1694</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4018</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6464</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1105; 6118</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6852</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6743</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1325; 10688</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2773; 9040</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6986</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>983; 8697</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2509; 13623</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4850; 13132</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9540</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3204</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9167</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4229</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9540</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3204</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9167</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4229</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 705</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 778</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4429; 17550</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>950; 8731</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4237; 16457</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1936; 7451</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>4471; 17108</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>950; 8731</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4237; 16457</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2000; 7585</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>6434</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>6292</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1853</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>8399</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>15212</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>6361</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>22159</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>14127</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>21647</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>12653</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>24011</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>22526</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2765; 13269</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2039; 14879</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6503</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4591; 13072</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>8948; 23910</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2212; 12971</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14110; 33385</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>9761; 19592</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>13766; 33965</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6372; 22919</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>15452; 35533</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>16390; 30186</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P55$nadie-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$nadie-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
